--- a/app/config/tables/scan_HIV_Patient_Record/forms/scan_HIV_Patient_Record/scan_HIV_Patient_Record.xlsx
+++ b/app/config/tables/scan_HIV_Patient_Record/forms/scan_HIV_Patient_Record/scan_HIV_Patient_Record.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\scan_HIV_Patient_Record\forms\scan_HIV_Patient_Record\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="0" windowWidth="25600" windowHeight="15200" activeTab="1"/>
+    <workbookView xWindow="6559" yWindow="0" windowWidth="25606" windowHeight="15199" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="model" sheetId="3" r:id="rId3"/>
     <sheet name="settings" sheetId="4" r:id="rId4"/>
+    <sheet name="properties" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="101">
   <si>
     <t>setting_name</t>
   </si>
@@ -33,9 +39,6 @@
     <t>display.title</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>scan_HIV_Patient_Record</t>
   </si>
   <si>
@@ -280,6 +283,54 @@
   </si>
   <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>colOrder</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>["scan_output_directory","Date_of_registration_image0_uriFragment","Date_of_registration_image0_contentType","Date_of_registration","Patient_ID_image0_uriFragment","Patient_ID_image0_contentType","Patient_ID","Patient_name_image0_uriFragment","Patient_name_image0_contentType","Patient_name","Patient_sex_image0_uriFragment","Patient_sex_image0_contentType","Patient_sex","Patient_DOB_image0_uriFragment","Patient_DOB_image0_contentType","Patient_DOB","GSM_number_image0_uriFragment","GSM_number_image0_contentType","GSM_number","Home_village_image0_uriFragment","Home_village_image0_contentType","Home_village","Referred_from_image0_uriFragment","Referred_from_image0_contentType","Referred_from","Referred_from_other_image0_uriFragment","Referred_from_other_image0_contentType","Referred_from_other","Name_ANC_or_TB_clinic_image0_uriFragment","Name_ANC_or_TB_clinic_image0_contentType","Name_ANC_or_TB_clinic","Transf_from_HU_image0_uriFragment","Transf_from_HU_image0_contentType","Transf_from_HU","Name_HU_transf_from_image0_uriFragment","Name_HU_transf_from_image0_contentType","Name_HU_transf_from","TB_screen_image0_uriFragment","TB_screen_image0_contentType","TB_screen","STI_screen_image0_uriFragment","STI_screen_image0_contentType","STI_screen","Care_adherence_edu_image0_uriFragment","Care_adherence_edu_image0_contentType","Care_adherence_edu","Clinical_serv_ref_for_image0_uriFragment","Clinical_serv_ref_for_image0_contentType","Clinical_serv_ref_for","Other_clinical_serv_image0_uriFragment","Other_clinical_serv_image0_contentType","Other_clinical_serv","Comm_serv_referred_for_image0_uriFragment","Comm_serv_referred_for_image0_contentType","Comm_serv_referred_for","Other_comm_serv_image0_uriFragment","Other_comm_serv_image0_contentType","Other_comm_serv"]</t>
+  </si>
+  <si>
+    <t>defaultViewType</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>detailViewFileName</t>
+  </si>
+  <si>
+    <t>configpath</t>
+  </si>
+  <si>
+    <t>config/tables/scan_HIV_Patient_Record/html/scan_HIV_Patient_Record_detail.html</t>
+  </si>
+  <si>
+    <t>listViewFileName</t>
+  </si>
+  <si>
+    <t>config/tables/scan_HIV_Patient_Record/html/scan_HIV_Patient_Record_list.html</t>
   </si>
 </sst>
 </file>
@@ -514,6 +565,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -812,661 +866,661 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
         <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
         <v>59</v>
-      </c>
-      <c r="D36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="B51" t="s">
-        <v>43</v>
-      </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" t="s">
         <v>78</v>
-      </c>
-      <c r="D52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="B55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" t="s">
-        <v>79</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" t="s">
         <v>80</v>
-      </c>
-      <c r="D56" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="B59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" t="s">
-        <v>81</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="B63" t="s">
-        <v>43</v>
-      </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
         <v>65</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="s">
         <v>66</v>
-      </c>
-      <c r="D64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="B67" t="s">
-        <v>43</v>
-      </c>
-      <c r="C67" t="s">
-        <v>67</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" t="s">
         <v>68</v>
-      </c>
-      <c r="D68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="B71" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" t="s">
-        <v>69</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" t="s">
         <v>70</v>
-      </c>
-      <c r="D72" t="s">
-        <v>70</v>
-      </c>
-      <c r="E72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="B75" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" t="s">
-        <v>71</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1484,322 +1538,322 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1819,22 +1873,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1851,11 +1905,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1866,28 +1922,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
       </c>
       <c r="B3">
         <v>201493</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1898,4 +1954,109 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>